--- a/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA48438-FF6C-4378-A783-474B44F728CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB7AE1-8ADF-400B-9152-E5F75A4A415F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="212">
   <si>
     <t>Action</t>
   </si>
@@ -691,12 +691,43 @@
     <t>Series.str.split(pat=None, n=-1, expand=False)
 df.str.split("|", n = 1, expand = True)</t>
   </si>
+  <si>
+    <t>Sort Values</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self, by, axis=0, ascending=True, inplace=False, kind='quicksort', na_position='last', ignore_index=False)
+df.sort_values(by=['col1'])</t>
+    </r>
+  </si>
+  <si>
+    <t>To sort values by some field, can do additional criteria but simply the same as order by in SQL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +755,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1289,10 +1333,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1344,7 @@
     <col min="1" max="1" width="39" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="8"/>
     <col min="3" max="3" width="8.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" style="7" customWidth="1"/>
     <col min="5" max="16384" width="50.7109375" style="3"/>
   </cols>
   <sheetData>
@@ -1580,6 +1624,20 @@
       </c>
       <c r="D20" s="9" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1595,8 +1653,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB7AE1-8ADF-400B-9152-E5F75A4A415F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C277E36-321E-4513-B0FC-E6678958BC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
   <si>
     <t>Action</t>
   </si>
@@ -671,9 +671,6 @@
   </si>
   <si>
     <t>https://pandas.pydata.org/pandas-docs/stable/user_guide/merging.html</t>
-  </si>
-  <si>
-    <t>round</t>
   </si>
   <si>
     <t>this allows you to round a float before converting to an integer</t>
@@ -721,6 +718,29 @@
   </si>
   <si>
     <t>To sort values by some field, can do additional criteria but simply the same as order by in SQL</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Replace Values</t>
+  </si>
+  <si>
+    <t>Replace a fixed value with another value either across the whole dataframe or for a specific column</t>
+  </si>
+  <si>
+    <t>df.replace('old_value','new_value', inplace = True)</t>
+  </si>
+  <si>
+    <t>Change Datatype</t>
+  </si>
+  <si>
+    <t>To change a datatype, this is also referenced above but remember to set the value to the new format</t>
+  </si>
+  <si>
+    <t>df['attribute1'] = df['attribute1'].astype(int)
+df['attribute1'] = df['attribute1'].astype(float)
+df['attribute1'] = df['attribute1'].astype(str)</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1355,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,16 +1648,16 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1651,10 +1671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,16 +1953,16 @@
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1961,16 +1981,44 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>205</v>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Basic Data Pandas Cheat Sheet.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C277E36-321E-4513-B0FC-E6678958BC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED4125-202B-4788-94CA-44CDF1608D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reading CSV Files" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Assessment" sheetId="2" r:id="rId2"/>
+    <sheet name="Gathering Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Assessing Data" sheetId="2" r:id="rId2"/>
     <sheet name="Cleaning Data" sheetId="3" r:id="rId3"/>
     <sheet name="Plotting Data" sheetId="4" r:id="rId4"/>
     <sheet name="Other Stuff" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$1:$D$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Assessment'!$A$1:$D$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$1:$D$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Reading CSV Files'!$A$1:$D$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Assessing Data'!$A$3:$D$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cleaning Data'!$A$3:$D$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Gathering Data'!$A$3:$D$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Plotting Data'!$A$3:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="225">
   <si>
     <t>Action</t>
   </si>
@@ -742,12 +742,33 @@
 df['attribute1'] = df['attribute1'].astype(float)
 df['attribute1'] = df['attribute1'].astype(str)</t>
   </si>
+  <si>
+    <t>Gathering Data</t>
+  </si>
+  <si>
+    <t>Assessing Data</t>
+  </si>
+  <si>
+    <t>Cleaning Data</t>
+  </si>
+  <si>
+    <t>Plotting Data</t>
+  </si>
+  <si>
+    <t>Matplotlib Line</t>
+  </si>
+  <si>
+    <t>To put a vertical line on a graph.  This is super useful for lots of things</t>
+  </si>
+  <si>
+    <t>plt.axvline('number')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,8 +813,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +832,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,6 +922,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1185,12 +1262,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CC762E-03EC-4CF3-8290-C68B393AB46A}">
   <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,146 +1281,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1351,12 +1440,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA275A4-2014-4F4D-B029-214BC618F482}">
   <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,298 +1459,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1669,12 +1770,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FCDFF-4B39-4A39-8A7E-6FE17145240D}">
   <sheetPr>
+    <tabColor theme="2" tint="-0.749992370372631"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,342 +1788,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2030,11 +2143,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6C71-8E1C-4020-B8E9-7D33298A8D30}">
   <sheetPr>
+    <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2045,258 +2161,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>96</v>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>97</v>
+      <c r="D9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Basic Data Pandas Cheat Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED4125-202B-4788-94CA-44CDF1608D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81B2EF-DB4E-4CBA-A85E-E672909A5A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="227">
   <si>
     <t>Action</t>
   </si>
@@ -762,6 +762,12 @@
   </si>
   <si>
     <t>plt.axvline('number')</t>
+  </si>
+  <si>
+    <t>Command Prompt Basics</t>
+  </si>
+  <si>
+    <t>https://www.digitalcitizen.life/command-prompt-how-use-basic-commands</t>
   </si>
 </sst>
 </file>
@@ -2148,8 +2154,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,10 +2454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,12 +2485,23 @@
         <v>202</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{E52CF261-8074-4503-9863-2F0C50A45B8C}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{675225E3-460E-4DDC-8AE0-D50081F2DE8B}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{E0EAF13F-808C-44DB-BA57-F61523546EDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Basic Data Pandas Cheat Sheet.xlsx
+++ b/Basic Data Pandas Cheat Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81B2EF-DB4E-4CBA-A85E-E672909A5A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C37BA-83DC-4F47-A97B-23089DE3FC9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Gathering Data" sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1451,8 +1451,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,8 +1781,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,8 +2154,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
